--- a/패턴 자료/mpat file format.xlsx
+++ b/패턴 자료/mpat file format.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y_ito\Desktop\Procyon\micro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\패턴뷰어 프로젝트\패턴 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80A468-BB7D-48FB-8AC5-A4F47110701B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31035" yWindow="1290" windowWidth="26010" windowHeight="13860" xr2:uid="{68E6F976-C1F4-46B7-AF12-159940E85340}"/>
+    <workbookView xWindow="31032" yWindow="1296" windowWidth="26016" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,12 +362,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -381,7 +380,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1373,15 +1372,204 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,21 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1466,183 +1639,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1953,20 +1952,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F804F94B-A6F0-48F2-8B44-D70D78E71409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1996,18 +1995,18 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+    <row r="3" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1">
+      <c r="A3" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2022,18 +2021,18 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2046,16 +2045,16 @@
       <c r="K4" s="8"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="70" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2070,16 +2069,16 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="73" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2094,16 +2093,16 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="76" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2118,16 +2117,16 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="76" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2142,16 +2141,16 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="73" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
       <c r="H9" s="11" t="s">
         <v>20</v>
       </c>
@@ -2166,16 +2165,16 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="70" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2190,16 +2189,16 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="79" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="38" t="s">
         <v>9</v>
       </c>
@@ -2214,16 +2213,16 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="79" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="38" t="s">
         <v>9</v>
       </c>
@@ -2238,16 +2237,16 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="79" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="38" t="s">
         <v>9</v>
       </c>
@@ -2262,16 +2261,16 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="82" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2286,16 +2285,16 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="70" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
@@ -2310,16 +2309,16 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="49" t="s">
+    <row r="16" spans="1:12" ht="18" thickBot="1">
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
@@ -2337,20 +2336,20 @@
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:12" ht="18" thickBot="1">
+      <c r="A17" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="40" t="s">
         <v>9</v>
       </c>
@@ -2365,16 +2364,16 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="110" t="s">
+    <row r="18" spans="1:12" ht="18" thickBot="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="38" t="s">
         <v>9</v>
       </c>
@@ -2389,16 +2388,16 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="84" t="s">
+    <row r="19" spans="1:12" ht="18" thickBot="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="37" t="s">
         <v>35</v>
       </c>
@@ -2413,22 +2412,22 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86" t="s">
+    <row r="20" spans="1:12" ht="18" thickBot="1">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="98"/>
+      <c r="D20" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="89">
-        <v>1</v>
-      </c>
-      <c r="F20" s="91" t="s">
+      <c r="E20" s="108">
+        <v>1</v>
+      </c>
+      <c r="F20" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="40" t="s">
         <v>9</v>
       </c>
@@ -2443,16 +2442,16 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92" t="s">
+    <row r="21" spans="1:12" ht="18" thickBot="1">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="38" t="s">
         <v>9</v>
       </c>
@@ -2467,34 +2466,34 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
+    <row r="22" spans="1:12" ht="18" thickBot="1">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="39"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="95" t="s">
+    <row r="23" spans="1:12" ht="18" thickBot="1">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="F23" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="92"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2509,16 +2508,16 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92" t="s">
+    <row r="24" spans="1:12" ht="18" thickBot="1">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="92"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="38" t="s">
         <v>9</v>
       </c>
@@ -2533,20 +2532,20 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88" t="s">
+    <row r="25" spans="1:12" ht="18" thickBot="1">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="90">
-        <v>1</v>
-      </c>
-      <c r="F25" s="92" t="s">
+      <c r="E25" s="109">
+        <v>1</v>
+      </c>
+      <c r="F25" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="92"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2561,16 +2560,16 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92" t="s">
+    <row r="26" spans="1:12" ht="18" thickBot="1">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2585,34 +2584,34 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
+    <row r="27" spans="1:12" ht="18" thickBot="1">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="39"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="95" t="s">
+    <row r="28" spans="1:12" ht="18" thickBot="1">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="92"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="38" t="s">
         <v>9</v>
       </c>
@@ -2627,16 +2626,16 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="92" t="s">
+    <row r="29" spans="1:12" ht="18" thickBot="1">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="92"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="38" t="s">
         <v>9</v>
       </c>
@@ -2651,20 +2650,20 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="98" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="67" t="s">
+      <c r="C30" s="92"/>
+      <c r="D30" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="7" t="s">
         <v>9</v>
       </c>
@@ -2677,16 +2676,16 @@
       <c r="K30" s="8"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="82" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
       <c r="H31" s="9" t="s">
         <v>9</v>
       </c>
@@ -2701,16 +2700,16 @@
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="82" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="9" t="s">
         <v>9</v>
       </c>
@@ -2725,16 +2724,16 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="82" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
@@ -2749,16 +2748,16 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="104" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
       <c r="H34" s="34" t="s">
         <v>9</v>
       </c>
@@ -2773,16 +2772,16 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="70" t="s">
+    <row r="35" spans="1:12" ht="18" thickBot="1">
+      <c r="A35" s="90"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="14" t="s">
         <v>59</v>
       </c>
@@ -2800,22 +2799,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="99"/>
-      <c r="B36" s="98" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="90"/>
+      <c r="B36" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="123" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="124">
-        <v>1</v>
-      </c>
-      <c r="F36" s="125" t="s">
+      <c r="E36" s="83">
+        <v>1</v>
+      </c>
+      <c r="F36" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="20" t="s">
         <v>9</v>
       </c>
@@ -2830,16 +2829,16 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="99"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="96" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="90"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="96"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="9" t="s">
         <v>9</v>
       </c>
@@ -2854,34 +2853,34 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="99"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="97"/>
+    <row r="38" spans="1:12">
+      <c r="A38" s="90"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="17"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="99"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="117" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="90"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="96"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2896,16 +2895,16 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="99"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="96" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="90"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="96"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="9" t="s">
         <v>9</v>
       </c>
@@ -2920,20 +2919,20 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="99"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="97" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="90"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="114">
-        <v>1</v>
-      </c>
-      <c r="F41" s="96" t="s">
+      <c r="E41" s="59">
+        <v>1</v>
+      </c>
+      <c r="F41" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="96"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="9" t="s">
         <v>9</v>
       </c>
@@ -2948,16 +2947,16 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="99"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="96" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="90"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="9" t="s">
         <v>9</v>
       </c>
@@ -2972,34 +2971,34 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="99"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="97"/>
+    <row r="43" spans="1:12">
+      <c r="A43" s="90"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="17"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="99"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="117" t="s">
+    <row r="44" spans="1:12">
+      <c r="A44" s="90"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="96" t="s">
+      <c r="F44" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="96"/>
+      <c r="G44" s="52"/>
       <c r="H44" s="9" t="s">
         <v>9</v>
       </c>
@@ -3014,16 +3013,16 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="99"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="96" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="90"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="96"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="9" t="s">
         <v>9</v>
       </c>
@@ -3038,20 +3037,20 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="99"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="126" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="90"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="22">
         <v>1</v>
       </c>
-      <c r="F46" s="96" t="s">
+      <c r="F46" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="96"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="9" t="s">
         <v>9</v>
       </c>
@@ -3066,34 +3065,34 @@
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="99"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="127"/>
+    <row r="47" spans="1:12">
+      <c r="A47" s="90"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="17"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="99"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="128"/>
+    <row r="48" spans="1:12">
+      <c r="A48" s="90"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="129"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="9" t="s">
         <v>9</v>
       </c>
@@ -3108,16 +3107,16 @@
       </c>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="100"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="50" t="s">
+    <row r="49" spans="1:12" ht="18" thickBot="1">
+      <c r="A49" s="91"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="25" t="s">
         <v>35</v>
       </c>
@@ -3132,12 +3131,12 @@
       </c>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="112" t="s">
+    <row r="50" spans="1:12" ht="18" thickBot="1">
+      <c r="A50" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -3148,20 +3147,20 @@
       <c r="K50" s="30"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="130" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="67" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="7" t="s">
         <v>9</v>
       </c>
@@ -3174,16 +3173,16 @@
       <c r="K51" s="8"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="131"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="82" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="62"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
       <c r="H52" s="9" t="s">
         <v>9</v>
       </c>
@@ -3198,16 +3197,16 @@
       </c>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="131"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="82" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" s="62"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="9" t="s">
         <v>9</v>
       </c>
@@ -3222,16 +3221,16 @@
       </c>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="131"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="82" t="s">
+    <row r="54" spans="1:12">
+      <c r="A54" s="62"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="9" t="s">
         <v>9</v>
       </c>
@@ -3246,16 +3245,16 @@
       </c>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="131"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="133" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" s="62"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="135"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="45" t="s">
         <v>9</v>
       </c>
@@ -3270,16 +3269,16 @@
       </c>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="131"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="70" t="s">
+    <row r="56" spans="1:12" ht="18" thickBot="1">
+      <c r="A56" s="62"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="14" t="s">
         <v>59</v>
       </c>
@@ -3294,22 +3293,22 @@
       </c>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="131"/>
-      <c r="B57" s="98" t="s">
+    <row r="57" spans="1:12">
+      <c r="A57" s="62"/>
+      <c r="B57" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="123" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="124">
-        <v>1</v>
-      </c>
-      <c r="F57" s="125" t="s">
+      <c r="E57" s="83">
+        <v>1</v>
+      </c>
+      <c r="F57" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="125"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="20" t="s">
         <v>9</v>
       </c>
@@ -3324,16 +3323,16 @@
       </c>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="131"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="96" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="62"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="96"/>
+      <c r="G58" s="52"/>
       <c r="H58" s="9" t="s">
         <v>9</v>
       </c>
@@ -3348,34 +3347,34 @@
       </c>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="131"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="97"/>
+    <row r="59" spans="1:12">
+      <c r="A59" s="62"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="17"/>
       <c r="L59" s="31"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="131"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="117" t="s">
+    <row r="60" spans="1:12">
+      <c r="A60" s="62"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="96"/>
+      <c r="G60" s="52"/>
       <c r="H60" s="9" t="s">
         <v>9</v>
       </c>
@@ -3390,16 +3389,16 @@
       </c>
       <c r="L60" s="31"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="131"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="96" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="62"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="96"/>
+      <c r="G61" s="52"/>
       <c r="H61" s="9" t="s">
         <v>9</v>
       </c>
@@ -3414,20 +3413,20 @@
       </c>
       <c r="L61" s="31"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="131"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="97" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62" s="62"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="114">
-        <v>1</v>
-      </c>
-      <c r="F62" s="96" t="s">
+      <c r="E62" s="59">
+        <v>1</v>
+      </c>
+      <c r="F62" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G62" s="96"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="9" t="s">
         <v>9</v>
       </c>
@@ -3442,16 +3441,16 @@
       </c>
       <c r="L62" s="31"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="131"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="96" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="62"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="96"/>
+      <c r="G63" s="52"/>
       <c r="H63" s="9" t="s">
         <v>9</v>
       </c>
@@ -3466,34 +3465,34 @@
       </c>
       <c r="L63" s="31"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="131"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="97"/>
+    <row r="64" spans="1:12">
+      <c r="A64" s="62"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="116"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="17"/>
       <c r="L64" s="31"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="131"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="117" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="62"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="96" t="s">
+      <c r="F65" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="96"/>
+      <c r="G65" s="52"/>
       <c r="H65" s="9" t="s">
         <v>9</v>
       </c>
@@ -3508,16 +3507,16 @@
       </c>
       <c r="L65" s="31"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="131"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="96" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="62"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="96"/>
+      <c r="G66" s="52"/>
       <c r="H66" s="9" t="s">
         <v>9</v>
       </c>
@@ -3532,20 +3531,20 @@
       </c>
       <c r="L66" s="31"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="131"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="126" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="62"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="22">
         <v>1</v>
       </c>
-      <c r="F67" s="96" t="s">
+      <c r="F67" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="96"/>
+      <c r="G67" s="52"/>
       <c r="H67" s="9" t="s">
         <v>9</v>
       </c>
@@ -3560,34 +3559,34 @@
       </c>
       <c r="L67" s="31"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="131"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="127"/>
+    <row r="68" spans="1:12">
+      <c r="A68" s="62"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="115"/>
-      <c r="G68" s="116"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="17"/>
       <c r="L68" s="31"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="131"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="128"/>
+    <row r="69" spans="1:12">
+      <c r="A69" s="62"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="129" t="s">
+      <c r="F69" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G69" s="129"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="9" t="s">
         <v>9</v>
       </c>
@@ -3602,16 +3601,16 @@
       </c>
       <c r="L69" s="31"/>
     </row>
-    <row r="70" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="132"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="138" t="s">
+    <row r="70" spans="1:12" ht="18" thickBot="1">
+      <c r="A70" s="63"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="138"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="139"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="32" t="s">
         <v>35</v>
       </c>
@@ -3626,23 +3625,78 @@
       </c>
       <c r="L70" s="31"/>
     </row>
-    <row r="71" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:12" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B36:C49"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="A51:A70"/>
     <mergeCell ref="B51:C56"/>
     <mergeCell ref="D51:G51"/>
@@ -3659,75 +3713,20 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B36:C49"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C16"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D70:G70"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/패턴 자료/mpat file format.xlsx
+++ b/패턴 자료/mpat file format.xlsx
@@ -1372,67 +1372,58 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,176 +1435,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1637,6 +1463,180 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1996,17 +1996,17 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="A3" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118" t="s">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="119"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2022,17 +2022,17 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="70" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2046,15 +2046,15 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="123"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="78" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="130"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2070,15 +2070,15 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="131" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2094,15 +2094,15 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="123"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="134" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="136"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2118,15 +2118,15 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="134" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2142,15 +2142,15 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="131" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="133"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="11" t="s">
         <v>20</v>
       </c>
@@ -2166,15 +2166,15 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="78" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="130"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2190,15 +2190,15 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="137" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="38" t="s">
         <v>9</v>
       </c>
@@ -2214,23 +2214,24 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="137" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="38">
-        <v>64</v>
+        <v>4096</v>
       </c>
       <c r="J12" s="38">
-        <v>256</v>
+        <f>4096*4</f>
+        <v>16384</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>27</v>
@@ -2238,23 +2239,24 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="137" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="38" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="38">
-        <v>64</v>
+        <v>4096</v>
       </c>
       <c r="J13" s="38">
-        <v>256</v>
+        <f>4096*4</f>
+        <v>16384</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>29</v>
@@ -2262,15 +2264,15 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="123"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="73" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2286,15 +2288,15 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="78" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="130"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
@@ -2310,15 +2312,15 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18" thickBot="1">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="114" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
@@ -2333,23 +2335,23 @@
       </c>
       <c r="L16" s="4">
         <f>SUM(J4:J16)</f>
-        <v>688</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" thickBot="1">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="40" t="s">
         <v>9</v>
       </c>
@@ -2362,18 +2364,20 @@
       <c r="K17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="18" thickBot="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="102" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="38" t="s">
         <v>9</v>
       </c>
@@ -2386,18 +2390,20 @@
       <c r="K18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="18" thickBot="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="104" t="s">
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="37" t="s">
         <v>35</v>
       </c>
@@ -2413,21 +2419,21 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="18" thickBot="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="106" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="108">
-        <v>1</v>
-      </c>
-      <c r="F20" s="110" t="s">
+      <c r="E20" s="89">
+        <v>1</v>
+      </c>
+      <c r="F20" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="110"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="40" t="s">
         <v>9</v>
       </c>
@@ -2443,15 +2449,15 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="18" thickBot="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="89" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="89"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="38" t="s">
         <v>9</v>
       </c>
@@ -2467,15 +2473,15 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="18" thickBot="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -2483,17 +2489,17 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="18" thickBot="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="113" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2509,15 +2515,15 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="18" thickBot="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="89" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="89"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="38" t="s">
         <v>9</v>
       </c>
@@ -2533,19 +2539,19 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="18" thickBot="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="107" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="109">
-        <v>1</v>
-      </c>
-      <c r="F25" s="89" t="s">
+      <c r="E25" s="90">
+        <v>1</v>
+      </c>
+      <c r="F25" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="89"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2561,15 +2567,15 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="18" thickBot="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="89" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="89"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2585,15 +2591,15 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="18" thickBot="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="107"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -2601,17 +2607,17 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="18" thickBot="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="113" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="89"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="38" t="s">
         <v>9</v>
       </c>
@@ -2627,15 +2633,15 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="18" thickBot="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="89" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="89"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="38" t="s">
         <v>9</v>
       </c>
@@ -2651,19 +2657,19 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="70" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="7" t="s">
         <v>9</v>
       </c>
@@ -2677,15 +2683,15 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="73" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="9" t="s">
         <v>9</v>
       </c>
@@ -2701,15 +2707,15 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="73" t="s">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="9" t="s">
         <v>9</v>
       </c>
@@ -2725,15 +2731,15 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="73" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
@@ -2749,15 +2755,15 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="95" t="s">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="34" t="s">
         <v>9</v>
       </c>
@@ -2773,15 +2779,15 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="18" thickBot="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="78" t="s">
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="14" t="s">
         <v>59</v>
       </c>
@@ -2800,21 +2806,21 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="90"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="99"/>
+      <c r="B36" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="82" t="s">
+      <c r="C36" s="118"/>
+      <c r="D36" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="83">
-        <v>1</v>
-      </c>
-      <c r="F36" s="84" t="s">
+      <c r="E36" s="124">
+        <v>1</v>
+      </c>
+      <c r="F36" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="84"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="20" t="s">
         <v>9</v>
       </c>
@@ -2830,15 +2836,15 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="90"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="52" t="s">
+      <c r="A37" s="99"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="96"/>
       <c r="H37" s="9" t="s">
         <v>9</v>
       </c>
@@ -2854,15 +2860,15 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="90"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="58"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -2870,17 +2876,17 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="90"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="60" t="s">
+      <c r="A39" s="99"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2896,15 +2902,15 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="90"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="52" t="s">
+      <c r="A40" s="99"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="9" t="s">
         <v>9</v>
       </c>
@@ -2920,19 +2926,19 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="90"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="58" t="s">
+      <c r="A41" s="99"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="59">
-        <v>1</v>
-      </c>
-      <c r="F41" s="52" t="s">
+      <c r="E41" s="114">
+        <v>1</v>
+      </c>
+      <c r="F41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="52"/>
+      <c r="G41" s="96"/>
       <c r="H41" s="9" t="s">
         <v>9</v>
       </c>
@@ -2948,15 +2954,15 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="90"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="52" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="9" t="s">
         <v>9</v>
       </c>
@@ -2972,15 +2978,15 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="90"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="58"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -2988,17 +2994,17 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="90"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="60" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="52" t="s">
+      <c r="F44" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="52"/>
+      <c r="G44" s="96"/>
       <c r="H44" s="9" t="s">
         <v>9</v>
       </c>
@@ -3014,15 +3020,15 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="90"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="52" t="s">
+      <c r="A45" s="99"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="52"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="9" t="s">
         <v>9</v>
       </c>
@@ -3038,19 +3044,19 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="90"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="99"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="126" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="22">
         <v>1</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="52"/>
+      <c r="G46" s="96"/>
       <c r="H46" s="9" t="s">
         <v>9</v>
       </c>
@@ -3066,15 +3072,15 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="90"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="50"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="127"/>
       <c r="E47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -3082,17 +3088,17 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="90"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="51"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="128"/>
       <c r="E48" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="55"/>
+      <c r="G48" s="129"/>
       <c r="H48" s="9" t="s">
         <v>9</v>
       </c>
@@ -3108,15 +3114,15 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="18" thickBot="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="85" t="s">
+      <c r="A49" s="100"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
       <c r="H49" s="25" t="s">
         <v>35</v>
       </c>
@@ -3132,11 +3138,11 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="18" thickBot="1">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -3148,19 +3154,19 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="70" t="s">
+      <c r="C51" s="118"/>
+      <c r="D51" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="72"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="7" t="s">
         <v>9</v>
       </c>
@@ -3174,15 +3180,15 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="62"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="73" t="s">
+      <c r="A52" s="131"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="9" t="s">
         <v>9</v>
       </c>
@@ -3198,15 +3204,15 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="62"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="73" t="s">
+      <c r="A53" s="131"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="9" t="s">
         <v>9</v>
       </c>
@@ -3222,15 +3228,15 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="62"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="73" t="s">
+      <c r="A54" s="131"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
       <c r="H54" s="9" t="s">
         <v>9</v>
       </c>
@@ -3246,15 +3252,15 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="62"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="75" t="s">
+      <c r="A55" s="131"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="135"/>
       <c r="H55" s="45" t="s">
         <v>9</v>
       </c>
@@ -3270,15 +3276,15 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="18" thickBot="1">
-      <c r="A56" s="62"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="78" t="s">
+      <c r="A56" s="131"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
       <c r="H56" s="14" t="s">
         <v>59</v>
       </c>
@@ -3294,21 +3300,21 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="62"/>
-      <c r="B57" s="64" t="s">
+      <c r="A57" s="131"/>
+      <c r="B57" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="82" t="s">
+      <c r="C57" s="118"/>
+      <c r="D57" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="83">
-        <v>1</v>
-      </c>
-      <c r="F57" s="84" t="s">
+      <c r="E57" s="124">
+        <v>1</v>
+      </c>
+      <c r="F57" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="84"/>
+      <c r="G57" s="125"/>
       <c r="H57" s="20" t="s">
         <v>9</v>
       </c>
@@ -3324,15 +3330,15 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="62"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="52" t="s">
+      <c r="A58" s="131"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="52"/>
+      <c r="G58" s="96"/>
       <c r="H58" s="9" t="s">
         <v>9</v>
       </c>
@@ -3348,15 +3354,15 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="62"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="58"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -3364,17 +3370,17 @@
       <c r="L59" s="31"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="62"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="60" t="s">
+      <c r="A60" s="131"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="52"/>
+      <c r="G60" s="96"/>
       <c r="H60" s="9" t="s">
         <v>9</v>
       </c>
@@ -3390,15 +3396,15 @@
       <c r="L60" s="31"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="62"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="52" t="s">
+      <c r="A61" s="131"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="52"/>
+      <c r="G61" s="96"/>
       <c r="H61" s="9" t="s">
         <v>9</v>
       </c>
@@ -3414,19 +3420,19 @@
       <c r="L61" s="31"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="62"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="58" t="s">
+      <c r="A62" s="131"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="59">
-        <v>1</v>
-      </c>
-      <c r="F62" s="52" t="s">
+      <c r="E62" s="114">
+        <v>1</v>
+      </c>
+      <c r="F62" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G62" s="52"/>
+      <c r="G62" s="96"/>
       <c r="H62" s="9" t="s">
         <v>9</v>
       </c>
@@ -3442,15 +3448,15 @@
       <c r="L62" s="31"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="62"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="52" t="s">
+      <c r="A63" s="131"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="52"/>
+      <c r="G63" s="96"/>
       <c r="H63" s="9" t="s">
         <v>9</v>
       </c>
@@ -3466,15 +3472,15 @@
       <c r="L63" s="31"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="62"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="58"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="97"/>
       <c r="E64" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="116"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -3482,17 +3488,17 @@
       <c r="L64" s="31"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="62"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="60" t="s">
+      <c r="A65" s="131"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="52"/>
+      <c r="G65" s="96"/>
       <c r="H65" s="9" t="s">
         <v>9</v>
       </c>
@@ -3508,15 +3514,15 @@
       <c r="L65" s="31"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="62"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="52" t="s">
+      <c r="A66" s="131"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="52"/>
+      <c r="G66" s="96"/>
       <c r="H66" s="9" t="s">
         <v>9</v>
       </c>
@@ -3532,19 +3538,19 @@
       <c r="L66" s="31"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="62"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="131"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="126" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="22">
         <v>1</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F67" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="52"/>
+      <c r="G67" s="96"/>
       <c r="H67" s="9" t="s">
         <v>9</v>
       </c>
@@ -3560,15 +3566,15 @@
       <c r="L67" s="31"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="62"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="50"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="127"/>
       <c r="E68" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="116"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
@@ -3576,17 +3582,17 @@
       <c r="L68" s="31"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="62"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="51"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="128"/>
       <c r="E69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="G69" s="55"/>
+      <c r="G69" s="129"/>
       <c r="H69" s="9" t="s">
         <v>9</v>
       </c>
@@ -3602,15 +3608,15 @@
       <c r="L69" s="31"/>
     </row>
     <row r="70" spans="1:12" ht="18" thickBot="1">
-      <c r="A70" s="63"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="56" t="s">
+      <c r="A70" s="132"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="57"/>
+      <c r="E70" s="138"/>
+      <c r="F70" s="138"/>
+      <c r="G70" s="139"/>
       <c r="H70" s="32" t="s">
         <v>35</v>
       </c>
@@ -3628,6 +3634,89 @@
     <row r="71" spans="1:12" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A51:A70"/>
+    <mergeCell ref="B51:C56"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C70"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B36:C49"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -3644,89 +3733,6 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B36:C49"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="A51:A70"/>
-    <mergeCell ref="B51:C56"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C70"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D70:G70"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/패턴 자료/mpat file format.xlsx
+++ b/패턴 자료/mpat file format.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="76">
   <si>
     <t>The Object File Format(*.pat)</t>
     <phoneticPr fontId="3"/>
@@ -357,6 +357,14 @@
   <si>
     <t>29/44</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f 00 00 00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>359*116</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1294,7 +1302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,15 +1380,204 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,21 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1465,180 +1647,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1953,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1996,17 +2005,17 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="A3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2022,17 +2031,17 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2046,15 +2055,15 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="70" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2070,15 +2079,15 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="73" t="s">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2094,15 +2103,15 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="76" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2118,15 +2127,15 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="76" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
@@ -2142,15 +2151,15 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="73" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
       <c r="H9" s="11" t="s">
         <v>20</v>
       </c>
@@ -2166,15 +2175,15 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="70" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
@@ -2190,15 +2199,15 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="79" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="38" t="s">
         <v>9</v>
       </c>
@@ -2214,15 +2223,15 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="79" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="38" t="s">
         <v>9</v>
       </c>
@@ -2239,15 +2248,15 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="79" t="s">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="38" t="s">
         <v>9</v>
       </c>
@@ -2264,15 +2273,15 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="82" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2288,15 +2297,15 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="70" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
@@ -2312,15 +2321,15 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18" thickBot="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
@@ -2338,20 +2347,20 @@
         <v>32944</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" thickBot="1">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:13" ht="18" thickBot="1">
+      <c r="A17" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
       <c r="H17" s="40" t="s">
         <v>9</v>
       </c>
@@ -2368,16 +2377,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" thickBot="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="110" t="s">
+    <row r="18" spans="1:13" ht="18" thickBot="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="38" t="s">
         <v>9</v>
       </c>
@@ -2394,16 +2403,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" thickBot="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="84" t="s">
+    <row r="19" spans="1:13" ht="18" thickBot="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="37" t="s">
         <v>35</v>
       </c>
@@ -2418,22 +2427,22 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="18" thickBot="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86" t="s">
+    <row r="20" spans="1:13" ht="18" thickBot="1">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87" t="s">
+      <c r="C20" s="98"/>
+      <c r="D20" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="89">
-        <v>1</v>
-      </c>
-      <c r="F20" s="91" t="s">
+      <c r="E20" s="108">
+        <v>1</v>
+      </c>
+      <c r="F20" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="40" t="s">
         <v>9</v>
       </c>
@@ -2446,18 +2455,21 @@
       <c r="K20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="18" thickBot="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92" t="s">
+      <c r="L20" s="4">
+        <v>2101</v>
+      </c>
+      <c r="M20" s="140"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" thickBot="1">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="38" t="s">
         <v>9</v>
       </c>
@@ -2471,35 +2483,39 @@
         <v>48</v>
       </c>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="18" thickBot="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
+      <c r="M21">
+        <f>6*12/16</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" thickBot="1">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="39"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="18" thickBot="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="95" t="s">
+    <row r="23" spans="1:13" ht="18" thickBot="1">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="92" t="s">
+      <c r="F23" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="92"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="38" t="s">
         <v>9</v>
       </c>
@@ -2512,18 +2528,23 @@
       <c r="K23" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="18" thickBot="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92" t="s">
+      <c r="L23" s="4">
+        <v>2129</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" thickBot="1">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="92"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="38" t="s">
         <v>9</v>
       </c>
@@ -2538,20 +2559,20 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="18" thickBot="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88" t="s">
+    <row r="25" spans="1:13" ht="18" thickBot="1">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="90">
-        <v>1</v>
-      </c>
-      <c r="F25" s="92" t="s">
+      <c r="E25" s="109">
+        <v>1</v>
+      </c>
+      <c r="F25" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="92"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="38" t="s">
         <v>9</v>
       </c>
@@ -2564,18 +2585,21 @@
       <c r="K25" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92" t="s">
+      <c r="L25" s="4">
+        <f>2602+L23</f>
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" thickBot="1">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="38" t="s">
         <v>9</v>
       </c>
@@ -2590,34 +2614,37 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="18" thickBot="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
+    <row r="27" spans="1:13" ht="18" thickBot="1">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="39"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="18" thickBot="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="95" t="s">
+      <c r="M27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" thickBot="1">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="92"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="38" t="s">
         <v>9</v>
       </c>
@@ -2632,16 +2659,16 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="18" thickBot="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="92" t="s">
+    <row r="29" spans="1:13" ht="18" thickBot="1">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="92"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="38" t="s">
         <v>9</v>
       </c>
@@ -2656,20 +2683,20 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="98" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="67" t="s">
+      <c r="C30" s="92"/>
+      <c r="D30" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="7" t="s">
         <v>9</v>
       </c>
@@ -2682,16 +2709,16 @@
       <c r="K30" s="8"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="82" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
       <c r="H31" s="9" t="s">
         <v>9</v>
       </c>
@@ -2706,16 +2733,16 @@
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="82" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="9" t="s">
         <v>9</v>
       </c>
@@ -2731,15 +2758,15 @@
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="82" t="s">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
@@ -2755,15 +2782,15 @@
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="104" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="106"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
       <c r="H34" s="34" t="s">
         <v>9</v>
       </c>
@@ -2779,15 +2806,15 @@
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="18" thickBot="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="70" t="s">
+      <c r="A35" s="90"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="14" t="s">
         <v>59</v>
       </c>
@@ -2806,21 +2833,21 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="99"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="123" t="s">
+      <c r="C36" s="65"/>
+      <c r="D36" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="124">
-        <v>1</v>
-      </c>
-      <c r="F36" s="125" t="s">
+      <c r="E36" s="83">
+        <v>1</v>
+      </c>
+      <c r="F36" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="20" t="s">
         <v>9</v>
       </c>
@@ -2836,15 +2863,15 @@
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="99"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="96" t="s">
+      <c r="A37" s="90"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="96"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="9" t="s">
         <v>9</v>
       </c>
@@ -2860,15 +2887,15 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="99"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="97"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -2876,17 +2903,17 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="99"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="117" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="96"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2902,15 +2929,15 @@
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="99"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="96" t="s">
+      <c r="A40" s="90"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="96"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="9" t="s">
         <v>9</v>
       </c>
@@ -2926,19 +2953,19 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="99"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="97" t="s">
+      <c r="A41" s="90"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="114">
-        <v>1</v>
-      </c>
-      <c r="F41" s="96" t="s">
+      <c r="E41" s="59">
+        <v>1</v>
+      </c>
+      <c r="F41" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="96"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="9" t="s">
         <v>9</v>
       </c>
@@ -2954,15 +2981,15 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="99"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="96" t="s">
+      <c r="A42" s="90"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="96"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="9" t="s">
         <v>9</v>
       </c>
@@ -2978,15 +3005,15 @@
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="99"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="97"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -2994,17 +3021,17 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="99"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="117" t="s">
+      <c r="A44" s="90"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="96" t="s">
+      <c r="F44" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="96"/>
+      <c r="G44" s="52"/>
       <c r="H44" s="9" t="s">
         <v>9</v>
       </c>
@@ -3020,15 +3047,15 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="99"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="96" t="s">
+      <c r="A45" s="90"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="96"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="9" t="s">
         <v>9</v>
       </c>
@@ -3044,19 +3071,19 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="99"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="126" t="s">
+      <c r="A46" s="90"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="22">
         <v>1</v>
       </c>
-      <c r="F46" s="96" t="s">
+      <c r="F46" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="96"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="9" t="s">
         <v>9</v>
       </c>
@@ -3072,15 +3099,15 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="99"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="127"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -3088,17 +3115,17 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="99"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="128"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="129"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="9" t="s">
         <v>9</v>
       </c>
@@ -3114,15 +3141,15 @@
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="18" thickBot="1">
-      <c r="A49" s="100"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="50" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="25" t="s">
         <v>35</v>
       </c>
@@ -3138,11 +3165,11 @@
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="18" thickBot="1">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
@@ -3154,19 +3181,19 @@
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="130" t="s">
+      <c r="A51" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="67" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="7" t="s">
         <v>9</v>
       </c>
@@ -3180,15 +3207,15 @@
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="131"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="82" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
       <c r="H52" s="9" t="s">
         <v>9</v>
       </c>
@@ -3204,15 +3231,15 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="131"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="82" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="9" t="s">
         <v>9</v>
       </c>
@@ -3228,15 +3255,15 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="131"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="82" t="s">
+      <c r="A54" s="62"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="9" t="s">
         <v>9</v>
       </c>
@@ -3252,15 +3279,15 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="131"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="133" t="s">
+      <c r="A55" s="62"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="135"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="45" t="s">
         <v>9</v>
       </c>
@@ -3276,15 +3303,15 @@
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="18" thickBot="1">
-      <c r="A56" s="131"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="70" t="s">
+      <c r="A56" s="62"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="14" t="s">
         <v>59</v>
       </c>
@@ -3300,21 +3327,21 @@
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="131"/>
-      <c r="B57" s="98" t="s">
+      <c r="A57" s="62"/>
+      <c r="B57" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="123" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="124">
-        <v>1</v>
-      </c>
-      <c r="F57" s="125" t="s">
+      <c r="E57" s="83">
+        <v>1</v>
+      </c>
+      <c r="F57" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="125"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="20" t="s">
         <v>9</v>
       </c>
@@ -3330,15 +3357,15 @@
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="131"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="96" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="96"/>
+      <c r="G58" s="52"/>
       <c r="H58" s="9" t="s">
         <v>9</v>
       </c>
@@ -3354,15 +3381,15 @@
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="131"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="97"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -3370,17 +3397,17 @@
       <c r="L59" s="31"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="131"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="117" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="96"/>
+      <c r="G60" s="52"/>
       <c r="H60" s="9" t="s">
         <v>9</v>
       </c>
@@ -3396,15 +3423,15 @@
       <c r="L60" s="31"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="131"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="96" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="96"/>
+      <c r="G61" s="52"/>
       <c r="H61" s="9" t="s">
         <v>9</v>
       </c>
@@ -3420,19 +3447,19 @@
       <c r="L61" s="31"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="131"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="97" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="114">
-        <v>1</v>
-      </c>
-      <c r="F62" s="96" t="s">
+      <c r="E62" s="59">
+        <v>1</v>
+      </c>
+      <c r="F62" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G62" s="96"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="9" t="s">
         <v>9</v>
       </c>
@@ -3448,15 +3475,15 @@
       <c r="L62" s="31"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="131"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="96" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="96"/>
+      <c r="G63" s="52"/>
       <c r="H63" s="9" t="s">
         <v>9</v>
       </c>
@@ -3472,15 +3499,15 @@
       <c r="L63" s="31"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="131"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="97"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="116"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -3488,17 +3515,17 @@
       <c r="L64" s="31"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="131"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="117" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="96" t="s">
+      <c r="F65" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="96"/>
+      <c r="G65" s="52"/>
       <c r="H65" s="9" t="s">
         <v>9</v>
       </c>
@@ -3514,15 +3541,15 @@
       <c r="L65" s="31"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="131"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="96" t="s">
+      <c r="A66" s="62"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="96"/>
+      <c r="G66" s="52"/>
       <c r="H66" s="9" t="s">
         <v>9</v>
       </c>
@@ -3538,19 +3565,19 @@
       <c r="L66" s="31"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="131"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="126" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="22">
         <v>1</v>
       </c>
-      <c r="F67" s="96" t="s">
+      <c r="F67" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="96"/>
+      <c r="G67" s="52"/>
       <c r="H67" s="9" t="s">
         <v>9</v>
       </c>
@@ -3566,15 +3593,15 @@
       <c r="L67" s="31"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="131"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="127"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="50"/>
       <c r="E68" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="115"/>
-      <c r="G68" s="116"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
@@ -3582,17 +3609,17 @@
       <c r="L68" s="31"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="131"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="128"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="129" t="s">
+      <c r="F69" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="G69" s="129"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="9" t="s">
         <v>9</v>
       </c>
@@ -3608,15 +3635,15 @@
       <c r="L69" s="31"/>
     </row>
     <row r="70" spans="1:12" ht="18" thickBot="1">
-      <c r="A70" s="132"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="138" t="s">
+      <c r="A70" s="63"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="138"/>
-      <c r="F70" s="138"/>
-      <c r="G70" s="139"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="32" t="s">
         <v>35</v>
       </c>
@@ -3634,20 +3661,75 @@
     <row r="71" spans="1:12" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C16"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C29"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="B30:C35"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B36:C49"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="A51:A70"/>
     <mergeCell ref="B51:C56"/>
     <mergeCell ref="D51:G51"/>
@@ -3664,75 +3746,20 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B36:C49"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A30:A49"/>
-    <mergeCell ref="B30:C35"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A17:A29"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C29"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C16"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D70:G70"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
